--- a/Testing/Authored TCs/US-2.1_Accountant_Ledger functionality_TCs.xlsx
+++ b/Testing/Authored TCs/US-2.1_Accountant_Ledger functionality_TCs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Authoring TC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Testing/Authored TCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{F62B8C48-A03A-439B-B17E-21C83F03E3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4542AAD-9234-49CE-8E49-D5527862185E}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{F62B8C48-A03A-439B-B17E-21C83F03E3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658B1A10-34D0-4971-AFFC-F885685802CF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB555361-C202-42F7-AB72-ABC48CA82E11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
   <si>
     <t>Subject</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Step 13</t>
+  </si>
+  <si>
+    <t>It should not be displayed and should be as per parameter.</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="F57" sqref="F57:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,7 +966,7 @@
         <v>68</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -977,7 +980,7 @@
         <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="145" x14ac:dyDescent="0.35">
@@ -1508,7 +1511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1519,10 +1522,10 @@
         <v>68</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1533,7 +1536,7 @@
         <v>69</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
